--- a/src/main/resources/template/装拆工作单模板-尾部.xlsx
+++ b/src/main/resources/template/装拆工作单模板-尾部.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\模板测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\testdemo\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C9D8A4-2107-4919-A15D-944BE4E458B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8901D8-DAE0-4E74-82E1-1FA598FADE06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,41 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">  领单人：</t>
+    <t xml:space="preserve">  领单人：                                                                                                   领单日期：                                                                                                   打印日期：{printDate}             </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>领单日期：</t>
+    <t xml:space="preserve">  装表人员（签名）：                                                                               供电所人员（签名）：                                                                               客户（签名）：             </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打印日期：</t>
-  </si>
-  <si>
-    <t>{printDate}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  装表人员(签名):</t>
-  </si>
-  <si>
-    <t>供电所人员(签名)：</t>
-  </si>
-  <si>
-    <t>客户（签名）：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      年      月      日</t>
+    <t xml:space="preserve">                                                                                                                                                                                                                                            年          月           日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;mm&quot;月&quot;dd&quot;日&quot;"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,49 +59,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="8"/>
-      <color indexed="8"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <color indexed="8"/>
-      <name val="黑体"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -125,149 +90,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -548,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -942,78 +775,102 @@
     <col min="16141" max="16141" width="7.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="5" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:M3"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
